--- a/medicine/Enfance/Mat_Coward/Mat_Coward.xlsx
+++ b/medicine/Enfance/Mat_Coward/Mat_Coward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mat Coward est un écrivain britannique, auteur de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2000, il publie son premier roman Up and Down, premier volume d'une série consacrée à Don Packham, inspecteur-détective, et Frank Mitchell, policier, à Londres.
 Il publie de nombreuses nouvelles de littérature policière et pour la jeunesse. À deux reprises, il est nommé pour le prix Edgar-Allan-Poe de la meilleure nouvelle.
@@ -545,17 +559,98 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Don Packham et Frank Mitchell
-Up and Down (2000)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Don Packham et Frank Mitchell</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Up and Down (2000)
 In and Out (2001)
 Over and Under (2004)
 Deep and Crisp (2004)
-Open and Closed (2005)
-Autres romans
-The Soother's Boy (2008)
-Acts of Destruction (2009)
-Nouvelles
+Open and Closed (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mat_Coward</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mat_Coward</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Soother's Boy (2008)
+Acts of Destruction (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mat_Coward</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mat_Coward</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 1993 History Repeats Itself, and It Doesn't Even Say Pardon
 1994 The Hampstead Vegetable Heist
 1994 Do the World a Favour
@@ -621,47 +716,121 @@
 2006 Jizz
 2008 Losing the Audience
 2015 On Borrowed Time
-Recueils de nouvelles
-Do the World a Favour and Other Stories (2003)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mat_Coward</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mat_Coward</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Do the World a Favour and Other Stories (2003)
 The Last Noel (2004)
 So Far, So Near (2007)
-You Can Jump and Other Stories (2012)
-Autres ouvrages
-Cannibal Victims Speak Out (1995)
+You Can Jump and Other Stories (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mat_Coward</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mat_Coward</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cannibal Victims Speak Out (1995)
 Classic Radio Comedy (2003)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Mat_Coward</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mat_Coward</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nominations
-Prix Edgar-Allan-Poe 2001 de la meilleure nouvelle pour Twelve Little Buggers[1]
-Prix Edgar-Allan-Poe 2016 de la meilleure nouvelle pour On Borrowed Time[1]
-Prix Macavity 2016 de la meilleure nouvelle pour On Borrowed Time[2]</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Edgar-Allan-Poe 2001 de la meilleure nouvelle pour Twelve Little Buggers
+Prix Edgar-Allan-Poe 2016 de la meilleure nouvelle pour On Borrowed Time
+Prix Macavity 2016 de la meilleure nouvelle pour On Borrowed Time</t>
         </is>
       </c>
     </row>
